--- a/tests/testExcelSheets/freezeExample.xlsx
+++ b/tests/testExcelSheets/freezeExample.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>FRUIT</t>
   </si>
@@ -75,66 +76,6 @@
   <si>
     <t>Green cabbage</t>
   </si>
-  <si>
-    <t>Yellow peppers</t>
-  </si>
-  <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>Cherries</t>
-  </si>
-  <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Green beans</t>
-  </si>
-  <si>
-    <t>Tomatoes</t>
-  </si>
-  <si>
-    <t>Red onion</t>
-  </si>
-  <si>
-    <t>Strawberries</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Butternut squash</t>
-  </si>
-  <si>
-    <t>Bananas</t>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Carrots</t>
-  </si>
-  <si>
-    <t>Daikon</t>
-  </si>
-  <si>
-    <t>Lime</t>
-  </si>
-  <si>
-    <t>Green peppers</t>
-  </si>
-  <si>
-    <t>Beets</t>
-  </si>
-  <si>
-    <t>Coconuts</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Lemon</t>
-  </si>
 </sst>
 </file>
 
@@ -160,12 +101,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -178,16 +125,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -197,20 +144,23 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -230,6 +180,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -381,9 +332,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -463,7 +414,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -491,10 +442,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -750,9 +701,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1040,7 +991,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1068,10 +1019,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1322,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1735,1285 +1686,429 @@
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="C26" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="D26" s="4">
-        <f>ROUND(B26*C26,2)</f>
-        <v>76.06</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="2">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1719" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ROUND(B2*C2,2)</f>
+        <v>18.58</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="C3" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ROUND(B3*C3,2)</f>
+        <v>87.23999999999999</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="C4" s="4">
+        <v>32.8</v>
+      </c>
+      <c r="D4" s="4">
+        <f>ROUND(B4*C4,2)</f>
+        <v>88.22999999999999</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C5" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="D5" s="4">
+        <f>ROUND(B5*C5,2)</f>
+        <v>18.02</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B6" s="4">
         <v>1.19</v>
       </c>
-      <c r="C27" s="4">
-        <v>38.2</v>
-      </c>
-      <c r="D27" s="4">
-        <f>ROUND(B27*C27,2)</f>
-        <v>45.46</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2.63</v>
-      </c>
-      <c r="C28" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="D28" s="4">
-        <f>ROUND(B28*C28,2)</f>
-        <v>45.76000000000001</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="2">
+      <c r="C6" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="D6" s="4">
+        <f>ROUND(B6*C6,2)</f>
+        <v>5.83</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="D7" s="4">
+        <f>ROUND(B7*C7,2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.49</v>
+      </c>
+      <c r="C8" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="D8" s="4">
+        <f>ROUND(B8*C8,2)</f>
+        <v>94.37</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f>ROUND(B9*C9,2)</f>
+        <v>29.72</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="C10" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="D10" s="4">
+        <f>ROUND(B10*C10,2)</f>
+        <v>88.72</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <f>ROUND(B11*C11,2)</f>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4">
+        <f>ROUND(B12*C12,2)</f>
+        <v>123.6</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4">
+        <f>ROUND(B13*C13,2)</f>
+        <v>38.52</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="C14" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="D14" s="4">
+        <f>ROUND(B14*C14,2)</f>
+        <v>109.07</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="4">
+        <f>ROUND(B15*C15,2)</f>
+        <v>21.47</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f>ROUND(B16*C16,2)</f>
+        <v>14.26</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B17" s="4">
         <v>0.66</v>
       </c>
-      <c r="C29" s="4">
-        <v>7.300000000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <f>ROUND(B29*C29,2)</f>
-        <v>4.82</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B30" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="C30" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="D30" s="4">
-        <f>ROUND(B30*C30,2)</f>
-        <v>243.2</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C31" s="4">
-        <v>6.100000000000001</v>
-      </c>
-      <c r="D31" s="4">
-        <f>ROUND(B31*C31,2)</f>
-        <v>11.47</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="2">
+      <c r="C17" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="D17" s="4">
+        <f>ROUND(B17*C17,2)</f>
+        <v>23.36</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5.13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ROUND(B18*C18,2)</f>
+        <v>73.87</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="C19" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="D19" s="4">
+        <f>ROUND(B19*C19,2)</f>
+        <v>13.05</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B20" s="4">
         <v>0.76</v>
       </c>
-      <c r="C32" s="4">
-        <v>21.1</v>
-      </c>
-      <c r="D32" s="4">
-        <f>ROUND(B32*C32,2)</f>
-        <v>16.04</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B33" s="4">
-        <v>2.63</v>
-      </c>
-      <c r="C33" s="4">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="D33" s="4">
-        <f>ROUND(B33*C33,2)</f>
-        <v>12.1</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="C34" s="4">
-        <v>31.1</v>
-      </c>
-      <c r="D34" s="4">
-        <f>ROUND(B34*C34,2)</f>
-        <v>78.37</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B35" s="4">
-        <v>3.16</v>
-      </c>
-      <c r="C35" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="D35" s="4">
-        <f>ROUND(B35*C35,2)</f>
-        <v>66.03999999999999</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B36" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7</v>
-      </c>
-      <c r="D36" s="4">
-        <f>ROUND(B36*C36,2)</f>
-        <v>25.97</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="C37" s="4">
-        <v>34.1</v>
-      </c>
-      <c r="D37" s="4">
-        <f>ROUND(B37*C37,2)</f>
-        <v>26.6</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B38" s="4">
-        <v>4.4</v>
-      </c>
-      <c r="C38" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="D38" s="4">
-        <f>ROUND(B38*C38,2)</f>
-        <v>81.40000000000001</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B39" s="4">
-        <v>2.63</v>
-      </c>
-      <c r="C39" s="4">
-        <v>39.3</v>
-      </c>
-      <c r="D39" s="4">
-        <f>ROUND(B39*C39,2)</f>
-        <v>103.36</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="2">
+      <c r="C20" s="4">
+        <v>35.7</v>
+      </c>
+      <c r="D20" s="4">
+        <f>ROUND(B20*C20,2)</f>
+        <v>27.13</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B21" s="4">
         <v>5.13</v>
       </c>
-      <c r="C40" s="4">
-        <v>32</v>
-      </c>
-      <c r="D40" s="4">
-        <f>ROUND(B40*C40,2)</f>
-        <v>164.16</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B41" s="4">
-        <v>4.4</v>
-      </c>
-      <c r="C41" s="4">
-        <v>32.2</v>
-      </c>
-      <c r="D41" s="4">
-        <f>ROUND(B41*C41,2)</f>
-        <v>141.68</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B42" s="4">
-        <v>2.69</v>
-      </c>
-      <c r="C42" s="4">
-        <v>21</v>
-      </c>
-      <c r="D42" s="4">
-        <f>ROUND(B42*C42,2)</f>
-        <v>56.49</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B43" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="C43" s="4">
-        <v>32.6</v>
-      </c>
-      <c r="D43" s="4">
-        <f>ROUND(B43*C43,2)</f>
-        <v>93.56</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="D44" s="4">
-        <f>ROUND(B44*C44,2)</f>
-        <v>3.48</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="C45" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="D45" s="4">
-        <f>ROUND(B45*C45,2)</f>
-        <v>38.02</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B46" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="C46" s="4">
-        <v>34.8</v>
-      </c>
-      <c r="D46" s="4">
-        <f>ROUND(B46*C46,2)</f>
-        <v>129.11</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B47" s="4">
-        <v>3.23</v>
-      </c>
-      <c r="C47" s="4">
-        <v>31.1</v>
-      </c>
-      <c r="D47" s="4">
-        <f>ROUND(B47*C47,2)</f>
-        <v>100.45</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="C48" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="D48" s="4">
-        <f>ROUND(B48*C48,2)</f>
-        <v>34.94</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B49" s="4">
-        <v>3.07</v>
-      </c>
-      <c r="C49" s="4">
-        <v>24.2</v>
-      </c>
-      <c r="D49" s="4">
-        <f>ROUND(B49*C49,2)</f>
-        <v>74.28999999999999</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="C50" s="4">
-        <v>3</v>
-      </c>
-      <c r="D50" s="4">
-        <f>ROUND(B50*C50,2)</f>
-        <v>2.58</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C51" s="4">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D51" s="4">
-        <f>ROUND(B51*C51,2)</f>
-        <v>16.54</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1.26</v>
-      </c>
-      <c r="C52" s="4">
-        <v>39.40000000000001</v>
-      </c>
-      <c r="D52" s="4">
-        <f>ROUND(B52*C52,2)</f>
-        <v>49.64</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B53" s="4">
-        <v>2.49</v>
-      </c>
-      <c r="C53" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="D53" s="4">
-        <f>ROUND(B53*C53,2)</f>
-        <v>80.92999999999999</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B54" s="4">
-        <v>5.13</v>
-      </c>
-      <c r="C54" s="4">
-        <v>20.4</v>
-      </c>
-      <c r="D54" s="4">
-        <f>ROUND(B54*C54,2)</f>
-        <v>104.65</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="C55" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="D55" s="4">
-        <f>ROUND(B55*C55,2)</f>
-        <v>41.44</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="C56" s="4">
-        <v>25.2</v>
-      </c>
-      <c r="D56" s="4">
-        <f>ROUND(B56*C56,2)</f>
-        <v>26.71</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="C21" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="D21" s="4">
+        <f>ROUND(B21*C21,2)</f>
+        <v>77.97999999999999</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2.32</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <f>ROUND(B22*C22,2)</f>
+        <v>11.6</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="C23" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="D23" s="4">
+        <f>ROUND(B23*C23,2)</f>
+        <v>34.03</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D24" s="4">
+        <f>ROUND(B24*C24,2)</f>
+        <v>2.24</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2.32</v>
+      </c>
+      <c r="C25" s="4">
         <v>32.8</v>
       </c>
-      <c r="D57" s="4">
-        <f>ROUND(B57*C57,2)</f>
-        <v>21.65</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B58" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="D58" s="4">
-        <f>ROUND(B58*C58,2)</f>
-        <v>10.02</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B59" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="C59" s="4">
-        <v>34.9</v>
-      </c>
-      <c r="D59" s="4">
-        <f>ROUND(B59*C59,2)</f>
-        <v>87.95</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B60" s="4">
-        <v>4.4</v>
-      </c>
-      <c r="C60" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="D60" s="4">
-        <f>ROUND(B60*C60,2)</f>
-        <v>85.8</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B61" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="C61" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="D61" s="4">
-        <f>ROUND(B61*C61,2)</f>
-        <v>4.95</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1.89</v>
-      </c>
-      <c r="C62" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="D62" s="4">
-        <f>ROUND(B62*C62,2)</f>
-        <v>65.21000000000001</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="C63" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="D63" s="4">
-        <f>ROUND(B63*C63,2)</f>
-        <v>2.92</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C64" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="D64" s="4">
-        <f>ROUND(B64*C64,2)</f>
-        <v>54.14</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B65" s="4">
-        <v>4.12</v>
-      </c>
-      <c r="C65" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="D65" s="4">
-        <f>ROUND(B65*C65,2)</f>
-        <v>52.73999999999999</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B66" s="4">
-        <v>3.23</v>
-      </c>
-      <c r="C66" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="D66" s="4">
-        <f>ROUND(B66*C66,2)</f>
-        <v>33.59</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="B67" s="4">
-        <v>2.26</v>
-      </c>
-      <c r="C67" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="D67" s="4">
-        <f>ROUND(B67*C67,2)</f>
-        <v>54.01000000000001</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B68" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="C68" s="4">
-        <v>19.1</v>
-      </c>
-      <c r="D68" s="4">
-        <f>ROUND(B68*C68,2)</f>
-        <v>25.59</v>
-      </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1.51</v>
-      </c>
-      <c r="C69" s="4">
-        <v>28</v>
-      </c>
-      <c r="D69" s="4">
-        <f>ROUND(B69*C69,2)</f>
-        <v>42.28</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B70" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="C70" s="4">
-        <v>38.5</v>
-      </c>
-      <c r="D70" s="4">
-        <f>ROUND(B70*C70,2)</f>
-        <v>97.02</v>
-      </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="C71" s="4">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="D71" s="4">
-        <f>ROUND(B71*C71,2)</f>
-        <v>4.41</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="C72" s="4">
-        <v>14.1</v>
-      </c>
-      <c r="D72" s="4">
-        <f>ROUND(B72*C72,2)</f>
-        <v>18.05</v>
-      </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B73" s="4">
-        <v>2.27</v>
-      </c>
-      <c r="C73" s="4">
-        <v>33</v>
-      </c>
-      <c r="D73" s="4">
-        <f>ROUND(B73*C73,2)</f>
-        <v>74.91</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B74" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="C74" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="D74" s="4">
-        <f>ROUND(B74*C74,2)</f>
-        <v>108.3</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B75" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="C75" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="D75" s="4">
-        <f>ROUND(B75*C75,2)</f>
-        <v>35.51</v>
-      </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" ht="15" customHeight="1">
-      <c r="A76" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B76" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="C76" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="D76" s="4">
-        <f>ROUND(B76*C76,2)</f>
-        <v>23.39</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" ht="15" customHeight="1">
-      <c r="A77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B77" s="4">
-        <v>2.32</v>
-      </c>
-      <c r="C77" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="D77" s="4">
-        <f>ROUND(B77*C77,2)</f>
-        <v>49.18</v>
-      </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" ht="15" customHeight="1">
-      <c r="A78" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B78" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="C78" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="D78" s="4">
-        <f>ROUND(B78*C78,2)</f>
-        <v>94.61</v>
-      </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" ht="15" customHeight="1">
-      <c r="A79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B79" s="4">
-        <v>2.32</v>
-      </c>
-      <c r="C79" s="4">
-        <v>30.2</v>
-      </c>
-      <c r="D79" s="4">
-        <f>ROUND(B79*C79,2)</f>
-        <v>70.06</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" ht="15" customHeight="1">
-      <c r="A80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B80" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="C80" s="4">
-        <v>35.8</v>
-      </c>
-      <c r="D80" s="4">
-        <f>ROUND(B80*C80,2)</f>
-        <v>42.23999999999999</v>
-      </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" ht="15" customHeight="1">
-      <c r="A81" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="C81" s="4">
-        <v>13.3</v>
-      </c>
-      <c r="D81" s="4">
-        <f>ROUND(B81*C81,2)</f>
-        <v>10.11</v>
-      </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" ht="15" customHeight="1">
-      <c r="A82" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B82" s="4">
-        <v>2.63</v>
-      </c>
-      <c r="C82" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="D82" s="4">
-        <f>ROUND(B82*C82,2)</f>
-        <v>37.35</v>
-      </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" ht="15" customHeight="1">
-      <c r="A83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B83" s="4">
-        <v>3.23</v>
-      </c>
-      <c r="C83" s="4">
-        <v>35.1</v>
-      </c>
-      <c r="D83" s="4">
-        <f>ROUND(B83*C83,2)</f>
-        <v>113.37</v>
-      </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="A84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B84" s="4">
-        <v>3.23</v>
-      </c>
-      <c r="C84" s="4">
-        <v>29.6</v>
-      </c>
-      <c r="D84" s="4">
-        <f>ROUND(B84*C84,2)</f>
-        <v>95.61</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" ht="15" customHeight="1">
-      <c r="A85" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B85" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C85" s="4">
-        <v>19</v>
-      </c>
-      <c r="D85" s="4">
-        <f>ROUND(B85*C85,2)</f>
-        <v>35.72</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B86" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="C86" s="4">
-        <v>32.9</v>
-      </c>
-      <c r="D86" s="4">
-        <f>ROUND(B86*C86,2)</f>
-        <v>46.06</v>
-      </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" ht="15" customHeight="1">
-      <c r="A87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B87" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="C87" s="4">
-        <v>30.7</v>
-      </c>
-      <c r="D87" s="4">
-        <f>ROUND(B87*C87,2)</f>
-        <v>32.54</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B88" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="C88" s="4">
-        <v>37.5</v>
-      </c>
-      <c r="D88" s="4">
-        <f>ROUND(B88*C88,2)</f>
-        <v>39.75</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" ht="15" customHeight="1">
-      <c r="A89" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B89" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="C89" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="D89" s="4">
-        <f>ROUND(B89*C89,2)</f>
-        <v>4.62</v>
-      </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B90" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="C90" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="D90" s="4">
-        <f>ROUND(B90*C90,2)</f>
-        <v>34.15</v>
-      </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B91" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C91" s="4">
-        <v>9.600000000000001</v>
-      </c>
-      <c r="D91" s="4">
-        <f>ROUND(B91*C91,2)</f>
-        <v>18.05</v>
-      </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B92" s="4">
-        <v>1.09</v>
-      </c>
-      <c r="C92" s="4">
-        <v>31.9</v>
-      </c>
-      <c r="D92" s="4">
-        <f>ROUND(B92*C92,2)</f>
-        <v>34.77</v>
-      </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B93" s="4">
-        <v>4.12</v>
-      </c>
-      <c r="C93" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="D93" s="4">
-        <f>ROUND(B93*C93,2)</f>
-        <v>93.94</v>
-      </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="A94" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="B94" s="4">
-        <v>2.26</v>
-      </c>
-      <c r="C94" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="D94" s="4">
-        <f>ROUND(B94*C94,2)</f>
-        <v>7.01</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="A95" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B95" s="4">
-        <v>3.07</v>
-      </c>
-      <c r="C95" s="4">
-        <v>33.6</v>
-      </c>
-      <c r="D95" s="4">
-        <f>ROUND(B95*C95,2)</f>
-        <v>103.15</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="A96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B96" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="C96" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="D96" s="4">
-        <f>ROUND(B96*C96,2)</f>
-        <v>18.32</v>
-      </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B97" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="C97" s="4">
-        <v>38.2</v>
-      </c>
-      <c r="D97" s="4">
-        <f>ROUND(B97*C97,2)</f>
-        <v>45.46</v>
-      </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="A98" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B98" s="4">
-        <v>4.12</v>
-      </c>
-      <c r="C98" s="4">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="D98" s="4">
-        <f>ROUND(B98*C98,2)</f>
-        <v>16.89</v>
-      </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B99" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="C99" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="D99" s="4">
-        <f>ROUND(B99*C99,2)</f>
-        <v>7.459999999999999</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B100" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="C100" s="4">
-        <v>33.5</v>
-      </c>
-      <c r="D100" s="4">
-        <f>ROUND(B100*C100,2)</f>
-        <v>39.53</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B101" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="C101" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="D101" s="4">
-        <f>ROUND(B101*C101,2)</f>
-        <v>31.54</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B102" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C102" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D102" s="4">
-        <f>ROUND(B102*C102,2)</f>
-        <v>3.01</v>
-      </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="A103" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B103" s="4">
-        <v>3.16</v>
-      </c>
-      <c r="C103" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="D103" s="4">
-        <f>ROUND(B103*C103,2)</f>
-        <v>23.7</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="A104" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B104" s="4">
-        <v>4.4</v>
-      </c>
-      <c r="C104" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="D104" s="4">
-        <f>ROUND(B104*C104,2)</f>
-        <v>48.84</v>
-      </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="A105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="C105" s="4">
-        <v>33.9</v>
-      </c>
-      <c r="D105" s="4">
-        <f>ROUND(B105*C105,2)</f>
-        <v>40</v>
-      </c>
-      <c r="E105" s="3"/>
+      <c r="D25" s="4">
+        <f>ROUND(B25*C25,2)</f>
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
